--- a/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>11.70829057693481</v>
+        <v>14.76951837539673</v>
       </c>
       <c r="G4" t="n">
-        <v>222.1422130391735</v>
+        <v>253.0900819532456</v>
       </c>
     </row>
     <row r="5">
@@ -644,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>14.25635576248169</v>
+        <v>13.0419921875</v>
       </c>
       <c r="G5" t="n">
-        <v>286.845679865946</v>
+        <v>335.6222380587877</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>15.24913311004638</v>
+        <v>16.8469214439392</v>
       </c>
       <c r="G6" t="n">
-        <v>395.92399640919</v>
+        <v>406.1006340094022</v>
       </c>
     </row>
     <row r="7">
@@ -702,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>21.36382818222045</v>
+        <v>25.46954631805419</v>
       </c>
       <c r="G7" t="n">
-        <v>471.1062309111347</v>
+        <v>453.0762011590305</v>
       </c>
     </row>
     <row r="8">
@@ -719,7 +719,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+          <t>Sentimental-bert24-2/bert</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>34.10517692565918</v>
+        <v>29.32890415191649</v>
       </c>
       <c r="G8" t="n">
-        <v>63.4736076074188</v>
+        <v>54.79022872335062</v>
       </c>
     </row>
     <row r="9">
@@ -748,7 +748,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+          <t>Sentimental-bert24-2/bert</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -760,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>37.86195993423461</v>
+        <v>35.04937648773193</v>
       </c>
       <c r="G9" t="n">
-        <v>102.0931224308183</v>
+        <v>98.68201533690643</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+          <t>Sentimental-bert24-2/bert</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>44.0561819076538</v>
+        <v>30.60036420822144</v>
       </c>
       <c r="G10" t="n">
-        <v>155.2255058841154</v>
+        <v>171.6389662108538</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+          <t>Sentimental-bert24-2/bert</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -818,126 +818,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>56.66375160217285</v>
+        <v>46.12188577651977</v>
       </c>
       <c r="G11" t="n">
-        <v>204.3747050205778</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19.61172103881835</v>
-      </c>
-      <c r="G12" t="n">
-        <v>124.3240481007306</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>21.42068862915039</v>
-      </c>
-      <c r="G13" t="n">
-        <v>204.8301444362955</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>26.99255228042602</v>
-      </c>
-      <c r="G14" t="n">
-        <v>272.9883957750656</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39.54147338867185</v>
-      </c>
-      <c r="G15" t="n">
-        <v>332.7173933219876</v>
+        <v>216.6269201778877</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +894,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"Sentimental-bert24-2/tokenizer": {"CPU1": {"THROUGHPUT": [[1, 222.14221303917353], [2, 286.84567986594595], [4, 395.92399640918995], [8, 471.10623091113473]], "LATENCY": [[1, 11.708290576934806], [2, 14.256355762481686], [4, 15.249133110046385], [8, 21.363828182220452]]}}, "Sentimental-bert24-2/bert24_p2_stage0": {"Tesla P40": {"THROUGHPUT": [[1, 63.4736076074188], [2, 102.0931224308183], [4, 155.22550588411542], [8, 204.37470502057778]], "LATENCY": [[1, 34.10517692565918], [2, 37.86195993423461], [4, 44.0561819076538], [8, 56.66375160217285]]}}, "Sentimental-bert24-2/bert24-p2-stage1": {"Tesla P40": {"THROUGHPUT": [[1, 124.32404810073064], [2, 204.83014443629546], [4, 272.98839577506556], [8, 332.7173933219876]], "LATENCY": [[1, 19.611721038818352], [2, 21.42068862915039], [4, 26.992552280426022], [8, 39.541473388671854]]}}}</t>
+          <t>{"Sentimental-bert24-2/tokenizer": {"CPU1": {"THROUGHPUT": [[1, 253.09008195324557], [2, 335.62223805878773], [4, 406.1006340094022], [8, 453.0762011590305]], "LATENCY": [[1, 14.769518375396727], [2, 13.041992187499998], [4, 16.846921443939202], [8, 25.469546318054185]]}}, "Sentimental-bert24-2/bert": {"Tesla P40": {"THROUGHPUT": [[1, 54.790228723350616], [2, 98.68201533690643], [4, 171.6389662108538], [8, 216.6269201778877]], "LATENCY": [[1, 29.328904151916493], [2, 35.04937648773193], [4, 30.600364208221436], [8, 46.12188577651977]]}}}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>11.70829057693481</v>
+        <v>15.76137065887451</v>
       </c>
       <c r="G4" t="n">
-        <v>222.1422130391735</v>
+        <v>230.6125734453858</v>
       </c>
     </row>
     <row r="5">
@@ -644,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>14.25635576248169</v>
+        <v>21.6904091835022</v>
       </c>
       <c r="G5" t="n">
-        <v>286.845679865946</v>
+        <v>273.1469391460485</v>
       </c>
     </row>
     <row r="6">
@@ -673,10 +673,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>15.24913311004638</v>
+        <v>24.83202219009399</v>
       </c>
       <c r="G6" t="n">
-        <v>395.92399640919</v>
+        <v>381.4970774020932</v>
       </c>
     </row>
     <row r="7">
@@ -702,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>21.36382818222045</v>
+        <v>26.2183928489685</v>
       </c>
       <c r="G7" t="n">
-        <v>471.1062309111347</v>
+        <v>429.5303772916355</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>34.10517692565918</v>
+        <v>25.70167064666748</v>
       </c>
       <c r="G8" t="n">
-        <v>63.4736076074188</v>
+        <v>90.43009740517203</v>
       </c>
     </row>
     <row r="9">
@@ -760,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>37.86195993423461</v>
+        <v>29.12822961807251</v>
       </c>
       <c r="G9" t="n">
-        <v>102.0931224308183</v>
+        <v>137.2221240733107</v>
       </c>
     </row>
     <row r="10">
@@ -789,10 +789,10 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>44.0561819076538</v>
+        <v>34.91165161132812</v>
       </c>
       <c r="G10" t="n">
-        <v>155.2255058841154</v>
+        <v>182.5665340188121</v>
       </c>
     </row>
     <row r="11">
@@ -818,10 +818,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>56.66375160217285</v>
+        <v>52.65275239944457</v>
       </c>
       <c r="G11" t="n">
-        <v>204.3747050205778</v>
+        <v>246.5175600174442</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>19.61172103881835</v>
+        <v>22.60903596878051</v>
       </c>
       <c r="G12" t="n">
-        <v>124.3240481007306</v>
+        <v>102.7385153817363</v>
       </c>
     </row>
     <row r="13">
@@ -876,10 +876,10 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>21.42068862915039</v>
+        <v>25.35673141479492</v>
       </c>
       <c r="G13" t="n">
-        <v>204.8301444362955</v>
+        <v>179.7882116347376</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +905,10 @@
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>26.99255228042602</v>
+        <v>29.36871290206909</v>
       </c>
       <c r="G14" t="n">
-        <v>272.9883957750656</v>
+        <v>259.6441140147517</v>
       </c>
     </row>
     <row r="15">
@@ -934,10 +934,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>39.54147338867185</v>
+        <v>39.58753108978271</v>
       </c>
       <c r="G15" t="n">
-        <v>332.7173933219876</v>
+        <v>342.2610144325105</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"Sentimental-bert24-2/tokenizer": {"CPU1": {"THROUGHPUT": [[1, 222.14221303917353], [2, 286.84567986594595], [4, 395.92399640918995], [8, 471.10623091113473]], "LATENCY": [[1, 11.708290576934806], [2, 14.256355762481686], [4, 15.249133110046385], [8, 21.363828182220452]]}}, "Sentimental-bert24-2/bert24_p2_stage0": {"Tesla P40": {"THROUGHPUT": [[1, 63.4736076074188], [2, 102.0931224308183], [4, 155.22550588411542], [8, 204.37470502057778]], "LATENCY": [[1, 34.10517692565918], [2, 37.86195993423461], [4, 44.0561819076538], [8, 56.66375160217285]]}}, "Sentimental-bert24-2/bert24-p2-stage1": {"Tesla P40": {"THROUGHPUT": [[1, 124.32404810073064], [2, 204.83014443629546], [4, 272.98839577506556], [8, 332.7173933219876]], "LATENCY": [[1, 19.611721038818352], [2, 21.42068862915039], [4, 26.992552280426022], [8, 39.541473388671854]]}}}</t>
+          <t>{"Sentimental-bert24-2/tokenizer": {"CPU1": {"THROUGHPUT": [[1, 230.61257344538583], [2, 273.1469391460485], [4, 381.49707740209317], [8, 429.53037729163555]], "LATENCY": [[1, 15.761370658874512], [2, 21.690409183502197], [4, 24.832022190093994], [8, 26.218392848968495]]}}, "Sentimental-bert24-2/bert24_p2_stage0": {"Tesla P40": {"THROUGHPUT": [[1, 90.43009740517203], [2, 137.22212407331068], [4, 182.56653401881212], [8, 246.51756001744423]], "LATENCY": [[1, 25.70167064666748], [2, 29.128229618072506], [4, 34.91165161132812], [8, 52.652752399444566]]}}, "Sentimental-bert24-2/bert24-p2-stage1": {"Tesla P40": {"THROUGHPUT": [[1, 102.7385153817363], [2, 179.78821163473765], [4, 259.6441140147517], [8, 342.26101443251054]], "LATENCY": [[1, 22.609035968780514], [2, 25.356731414794922], [4, 29.36871290206909], [8, 39.587531089782715]]}}}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Model Information" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Model Profile" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Model Raw Profile" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,34 +47,6 @@
     </border>
     <border>
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -522,406 +492,4 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>system information</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>{"system": "Linux", "node": "simontam", "release": "4.15.0-91-generic", "version": "#92-Ubuntu SMP Fri Feb 28 11:09:48 UTC 2020", "machine": "x86_64", "processor": "x86_64", "stats": {"physical_cores": 24, "virtual_cores": 24, "RAM": "376.57GB"}}</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>model repository</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>pgraph</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>ppu</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>hardware</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>batch size</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>latency (ms)</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>throughput (qps)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/tokenizer</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14.76951837539673</v>
-      </c>
-      <c r="G4" t="n">
-        <v>253.0900819532456</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/tokenizer</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.0419921875</v>
-      </c>
-      <c r="G5" t="n">
-        <v>335.6222380587877</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/tokenizer</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16.8469214439392</v>
-      </c>
-      <c r="G6" t="n">
-        <v>406.1006340094022</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/tokenizer</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25.46954631805419</v>
-      </c>
-      <c r="G7" t="n">
-        <v>453.0762011590305</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29.32890415191649</v>
-      </c>
-      <c r="G8" t="n">
-        <v>54.79022872335062</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>35.04937648773193</v>
-      </c>
-      <c r="G9" t="n">
-        <v>98.68201533690643</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30.60036420822144</v>
-      </c>
-      <c r="G10" t="n">
-        <v>171.6389662108538</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2/bert</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tesla P40</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>46.12188577651977</v>
-      </c>
-      <c r="G11" t="n">
-        <v>216.6269201778877</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>pgraph</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>raw profile</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset Information</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>feature</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Model Name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sysinfo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sentimental-bert24-2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{"Sentimental-bert24-2/tokenizer": {"CPU1": {"THROUGHPUT": [[1, 253.09008195324557], [2, 335.62223805878773], [4, 406.1006340094022], [8, 453.0762011590305]], "LATENCY": [[1, 14.769518375396727], [2, 13.041992187499998], [4, 16.846921443939202], [8, 25.469546318054185]]}}, "Sentimental-bert24-2/bert": {"Tesla P40": {"THROUGHPUT": [[1, 54.790228723350616], [2, 98.68201533690643], [4, 171.6389662108538], [8, 216.6269201778877]], "LATENCY": [[1, 29.328904151916493], [2, 35.04937648773193], [4, 30.600364208221436], [8, 46.12188577651977]]}}}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{"dataset": "Imagenet", "dataset_category": "IMAGE"}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ImageClassification</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>bert24-2</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>93</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>{"system": "Linux", "node": "simontam", "release": "4.15.0-91-generic", "version": "#92-Ubuntu SMP Fri Feb 28 11:09:48 UTC 2020", "machine": "x86_64", "processor": "x86_64", "stats": {"physical_cores": 24, "virtual_cores": 24, "RAM": "376.57GB"}}</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Model Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Profile" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Model Raw Profile" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -47,6 +49,34 @@
     </border>
     <border>
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -492,4 +522,754 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>system information</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>{"system": "Linux", "node": "simontam", "release": "4.15.0-91-generic", "version": "#92-Ubuntu SMP Fri Feb 28 11:09:48 UTC 2020", "machine": "x86_64", "processor": "x86_64", "stats": {"physical_cores": 24, "virtual_cores": 24, "RAM": "376.57GB"}}</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>model repository</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>pgraph</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ppu</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>hardware</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>batch size</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>latency (ms)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>throughput (qps)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/tokenizer</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.5901265144348</v>
+      </c>
+      <c r="G4" t="n">
+        <v>220.7060059675757</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/tokenizer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.82508087158203</v>
+      </c>
+      <c r="G5" t="n">
+        <v>285.6229179094517</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/tokenizer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.97156381607055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>395.9012746266442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/tokenizer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.85902452468872</v>
+      </c>
+      <c r="G7" t="n">
+        <v>426.1762587647352</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.71144342422484</v>
+      </c>
+      <c r="G8" t="n">
+        <v>96.99775547643769</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26.04084253311157</v>
+      </c>
+      <c r="G9" t="n">
+        <v>119.7647207842519</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60.28064250946044</v>
+      </c>
+      <c r="G10" t="n">
+        <v>118.3613252347019</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24_p2_stage0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>135.2407813072205</v>
+      </c>
+      <c r="G11" t="n">
+        <v>125.2969762241574</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22.28057384490966</v>
+      </c>
+      <c r="G12" t="n">
+        <v>113.888985132075</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>27.98917531967163</v>
+      </c>
+      <c r="G13" t="n">
+        <v>134.6079143460198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>65.00029802322388</v>
+      </c>
+      <c r="G14" t="n">
+        <v>122.6984087515011</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>151.8578314781189</v>
+      </c>
+      <c r="G15" t="n">
+        <v>133.0191340847323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19.99438524246215</v>
+      </c>
+      <c r="G16" t="n">
+        <v>109.9694415131873</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.21770238876343</v>
+      </c>
+      <c r="G17" t="n">
+        <v>131.8575330118221</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>59.93827342987059</v>
+      </c>
+      <c r="G18" t="n">
+        <v>126.3994697995873</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>137.1948146820068</v>
+      </c>
+      <c r="G19" t="n">
+        <v>124.7178811842903</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.11905622482299</v>
+      </c>
+      <c r="G20" t="n">
+        <v>121.4491229628705</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20.11396884918213</v>
+      </c>
+      <c r="G21" t="n">
+        <v>200.91180716317</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23.38559627532958</v>
+      </c>
+      <c r="G22" t="n">
+        <v>276.3978728527504</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert24-p2-stage3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>34.22538757324219</v>
+      </c>
+      <c r="G23" t="n">
+        <v>333.8423649162677</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pgraph</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw profile</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset Information</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Model Name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sysinfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{"Sentimental-bert24-2/tokenizer": {"CPU1": {"THROUGHPUT": [[1, 220.70600596757572], [2, 285.6229179094517], [4, 395.9012746266442], [8, 426.1762587647352]], "LATENCY": [[1, 10.5901265144348], [2, 10.825080871582028], [4, 14.971563816070546], [8, 20.859024524688717]]}}, "Sentimental-bert24-2/bert24_p2_stage0": {"Tesla P40": {"THROUGHPUT": [[1, 96.99775547643769], [2, 119.76472078425186], [4, 118.36132523470191], [8, 125.29697622415743]], "LATENCY": [[1, 20.711443424224843], [2, 26.040842533111565], [4, 60.28064250946044], [8, 135.24078130722046]]}}, "Sentimental-bert24-2/bert24-p2-stage1": {"Tesla P40": {"THROUGHPUT": [[1, 113.88898513207504], [2, 134.60791434601984], [4, 122.69840875150108], [8, 133.01913408473231]], "LATENCY": [[1, 22.28057384490966], [2, 27.989175319671627], [4, 65.00029802322388], [8, 151.8578314781189]]}}, "Sentimental-bert24-2/bert24-p2-stage2": {"Tesla P40": {"THROUGHPUT": [[1, 109.9694415131873], [2, 131.8575330118221], [4, 126.39946979958728], [8, 124.71788118429035]], "LATENCY": [[1, 19.994385242462155], [2, 30.217702388763428], [4, 59.93827342987059], [8, 137.1948146820068]]}}, "Sentimental-bert24-2/bert24-p2-stage3": {"Tesla P40": {"THROUGHPUT": [[1, 121.44912296287048], [2, 200.91180716316995], [4, 276.3978728527504], [8, 333.8423649162677]], "LATENCY": [[1, 18.119056224822994], [2, 20.113968849182125], [4, 23.385596275329583], [8, 34.22538757324219]]}}}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{"dataset": "Imagenet", "dataset_category": "IMAGE"}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ImageClassification</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bert24-2</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>93</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"system": "Linux", "node": "simontam", "release": "4.15.0-91-generic", "version": "#92-Ubuntu SMP Fri Feb 28 11:09:48 UTC 2020", "machine": "x86_64", "processor": "x86_64", "stats": {"physical_cores": 24, "virtual_cores": 24, "RAM": "376.57GB"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/physical/bert24.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Model Information" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Profile" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Model Raw Profile" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -47,6 +49,34 @@
     </border>
     <border>
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -492,4 +522,290 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>system information</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>{"system": "Linux", "node": "simontam", "release": "4.15.0-91-generic", "version": "#92-Ubuntu SMP Fri Feb 28 11:09:48 UTC 2020", "machine": "x86_64", "processor": "x86_64", "stats": {"physical_cores": 24, "virtual_cores": 24, "RAM": "376.57GB"}}</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>model repository</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>pgraph</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ppu</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>hardware</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>batch size</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>latency (ms)</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>throughput (qps)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.17009496688841</v>
+      </c>
+      <c r="G4" t="n">
+        <v>64.00842689067402</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.56815338134765</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95.84267183238136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69.16188955307004</v>
+      </c>
+      <c r="G6" t="n">
+        <v>97.91165880395454</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2/bert</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tesla P40</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>122.7242970466614</v>
+      </c>
+      <c r="G7" t="n">
+        <v>109.684232724181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pgraph</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>raw profile</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset Information</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Model Name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sysinfo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sentimental-bert24-2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{"Sentimental-bert24-2/bert": {"Tesla P40": {"THROUGHPUT": [[1, 64.00842689067402], [2, 95.84267183238136], [4, 97.91165880395454], [8, 109.68423272418104]], "LATENCY": [[1, 30.17009496688841], [2, 38.56815338134765], [4, 69.16188955307004], [8, 122.72429704666138]]}}}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{"dataset": "Imagenet", "dataset_category": "IMAGE"}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ImageClassification</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bert24-2</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>93</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"system": "Linux", "node": "simontam", "release": "4.15.0-91-generic", "version": "#92-Ubuntu SMP Fri Feb 28 11:09:48 UTC 2020", "machine": "x86_64", "processor": "x86_64", "stats": {"physical_cores": 24, "virtual_cores": 24, "RAM": "376.57GB"}}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>